--- a/medicine/Enfance/Aurélie_Genêt/Aurélie_Genêt.xlsx
+++ b/medicine/Enfance/Aurélie_Genêt/Aurélie_Genêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Gen%C3%AAt</t>
+          <t>Aurélie_Genêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélie Genêt est une autrice française de fantasy et de fantastique, née le 28 janvier 1979 à Nancy (Meurthe-et-Moselle).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Gen%C3%AAt</t>
+          <t>Aurélie_Genêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélie Genêt est orthophoniste et vit en Lorraine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Gen%C3%AAt</t>
+          <t>Aurélie_Genêt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Modifiés, éditions Sombres-Rets, 2013  (ISBN 978-2-918265-14-6)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Modifiés, éditions Sombres-Rets, 2013  (ISBN 978-2-918265-14-6).
 La Forêt des Murmures, Nats Editions, 2016.
 Les Larmes d'Ipacheta, Nats Éditions, 2017.
-Rechingen, éditions Royzz, 2017  (ISBN 978-2-36372-097-9)[2]
-Le Dernier Hipposus, éditions Royzz, 2019  (ISBN 978-2-36372-204-1)[3].
+Rechingen, éditions Royzz, 2017  (ISBN 978-2-36372-097-9)
+Le Dernier Hipposus, éditions Royzz, 2019  (ISBN 978-2-36372-204-1).
 Sur les traces de Belzébuth, Nats Éditions, 2019  (ISBN 9-783958-58190-6).
-Aquaal, le secret de l'Île Originelle, éditions Livr's, 2021  (ISBN 978-2-37910-068-0)[4].
+Aquaal, le secret de l'Île Originelle, éditions Livr's, 2021  (ISBN 978-2-37910-068-0).
 La nouvelle Nancéide, éditions La loutre de Béryl, 2023 {ISBN|978-2957600526}}</t>
         </is>
       </c>
